--- a/zoo.xlsx
+++ b/zoo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\poc\github\zooopl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DE9E20-83F9-42AB-B17D-ECCE22BB2513}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221D0EF1-7156-4368-8318-826150324A10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{52F68D02-D25C-4B7D-ACF3-C348F61BBAEC}"/>
   </bookViews>

--- a/zoo.xlsx
+++ b/zoo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\poc\github\zooopl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221D0EF1-7156-4368-8318-826150324A10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32308FF1-5A6C-494C-9EE0-882B6D691E0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{52F68D02-D25C-4B7D-ACF3-C348F61BBAEC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{52F68D02-D25C-4B7D-ACF3-C348F61BBAEC}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -411,15 +411,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D994DE-69A7-497C-9EAB-A68652170970}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E2" sqref="E2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -427,32 +427,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>40</v>
       </c>
       <c r="B2">
         <v>500</v>
       </c>
-      <c r="E2">
-        <v>40</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>30</v>
       </c>
       <c r="B3">
         <v>400</v>
-      </c>
-      <c r="E3">
-        <v>30</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/zoo.xlsx
+++ b/zoo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\poc\github\zooopl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32308FF1-5A6C-494C-9EE0-882B6D691E0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860D7D7D-FF08-429B-A125-0CF1DD5488D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{52F68D02-D25C-4B7D-ACF3-C348F61BBAEC}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{52F68D02-D25C-4B7D-ACF3-C348F61BBAEC}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D994DE-69A7-497C-9EAB-A68652170970}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:F3"/>
@@ -419,7 +419,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -427,20 +427,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>40</v>
       </c>
       <c r="B2">
         <v>500</v>
       </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>30</v>
       </c>
       <c r="B3">
         <v>400</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
